--- a/metadata/COVAC_Tracker/COVAC_TRACKER_V1_DHIS2.33/reference.xlsx
+++ b/metadata/COVAC_Tracker/COVAC_TRACKER_V1_DHIS2.33/reference.xlsx
@@ -449,7 +449,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -481,7 +481,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAC</v>
+        <v>V1.1.2</v>
       </c>
     </row>
     <row r="5">
@@ -489,7 +489,7 @@
         <v>DHIS2 version</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>TRACKER</v>
+        <v>DHIS2.33.8-3c90b70</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +497,7 @@
         <v>Created</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>V1.1.2</v>
+        <v>20210406T115721</v>
       </c>
     </row>
     <row r="7">
@@ -505,7 +505,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAC_TRACKER_COVAC_TRACKER_V1.1.2_DHIS2.33.8-3c90b70_20210318T130229</v>
+        <v>COVAC_TRACKER_V1.1.2_DHIS2.33.8-3c90b70_20210406T115721</v>
       </c>
     </row>
   </sheetData>
@@ -582,7 +582,7 @@
         <v>s2slttllN6D</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>sB1IHYu2xQT</v>
+        <v>First Name</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>sB1IHYu2xQT</v>
@@ -599,7 +599,7 @@
         <v>CbvQnJ9vOOd</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>ENRjVGxVL6l</v>
+        <v>Surname</v>
       </c>
       <c r="C5" s="5" t="str">
         <v>ENRjVGxVL6l</v>
@@ -616,7 +616,7 @@
         <v>kbwzu78u3JT</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>oindugucx72</v>
+        <v>Sex</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>oindugucx72</v>
@@ -650,7 +650,7 @@
         <v>dSiYRbN6NKt</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>NI0QRzJvQ0k</v>
+        <v>Date of birth</v>
       </c>
       <c r="C8" s="4" t="str">
         <v>NI0QRzJvQ0k</v>
@@ -684,7 +684,7 @@
         <v>fWwyEWSOqKq</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Xhdn49gUd52</v>
+        <v>Home Address</v>
       </c>
       <c r="C10" s="4" t="str">
         <v>Xhdn49gUd52</v>
@@ -1330,7 +1330,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAC - Renal Disease</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
     </row>
     <row r="3">
@@ -1338,7 +1338,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAC - Underlying condition</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
     </row>
     <row r="4">
@@ -1346,7 +1346,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAC- Batch Number</v>
+        <v>COVAC - Renal Disease</v>
       </c>
     </row>
     <row r="5">
@@ -1354,7 +1354,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAC - Pregnancy</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
     </row>
     <row r="6">
@@ -1362,7 +1362,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAC - Dose Expiry Date</v>
+        <v>COVAC - Total doses</v>
       </c>
     </row>
     <row r="7">
@@ -1370,7 +1370,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAC - Total doses</v>
+        <v>COVAC - Underlying condition</v>
       </c>
     </row>
     <row r="8">
@@ -1378,7 +1378,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAC - Dose Number</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
     </row>
     <row r="9">
@@ -1386,7 +1386,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>COVAC - Cardiovascular Disease</v>
+        <v>COVAC - Last Dose</v>
       </c>
     </row>
     <row r="10">
@@ -1394,7 +1394,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COVAC - Chronic Lung Disease</v>
+        <v>COVAC- Batch Number</v>
       </c>
     </row>
     <row r="11">
@@ -1402,7 +1402,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COVAC - AEFIs present</v>
+        <v>COVAC - Allergic reaction after first dose</v>
       </c>
     </row>
     <row r="12">
@@ -1410,7 +1410,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>COVAC Suggested date for next dose</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
     </row>
     <row r="13">
@@ -1418,7 +1418,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAC Previously infected with COVID</v>
+        <v>COVAC - Vaccine Manufacturer</v>
       </c>
     </row>
     <row r="14">
@@ -1426,7 +1426,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>COVAC - Neurological/Neuromuscular</v>
+        <v>COVAC - Pregnancy</v>
       </c>
     </row>
     <row r="15">
@@ -1434,7 +1434,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAC - Immunodeficiency</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
     </row>
     <row r="16">
@@ -1442,7 +1442,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAC - Multiple products used - Explain</v>
+        <v>COVAC - Diabetes</v>
       </c>
     </row>
     <row r="17">
@@ -1450,7 +1450,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAC - Vaccine Name</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
     </row>
     <row r="18">
@@ -1458,7 +1458,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>COVAC - Last Dose</v>
+        <v>COVAC - Dose Number</v>
       </c>
     </row>
     <row r="19">
@@ -1466,7 +1466,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAC - Allergic reaction after first dose</v>
+        <v>COVAC - Malignancy</v>
       </c>
     </row>
     <row r="20">
@@ -1474,7 +1474,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>COVAC - Underlying condition Other</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
     </row>
     <row r="21">
@@ -1482,7 +1482,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAC - Diabetes</v>
+        <v>COVAC - Chronic Lung Disease</v>
       </c>
     </row>
     <row r="22">
@@ -1490,7 +1490,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAC - Pregnancy gestation</v>
+        <v>COVAC - AEFIs present</v>
       </c>
     </row>
     <row r="23">
@@ -1498,7 +1498,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>COVAC - Malignancy</v>
+        <v>COVAC Suggested date for next dose</v>
       </c>
     </row>
     <row r="24">
@@ -1506,7 +1506,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>COVAC - Vaccine Manufacturer</v>
+        <v>COVAC Previously infected with COVID</v>
       </c>
     </row>
   </sheetData>
@@ -4027,13 +4027,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="174.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -4092,10 +4092,10 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Date of birth is estimated</v>
+        <v>Date of birth</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v/>
+        <v>patinfo_ageonsetunit</v>
       </c>
       <c r="C4" s="4" t="str">
         <v/>
@@ -4104,12 +4104,12 @@
         <v/>
       </c>
       <c r="E4" s="4" t="str">
-        <v>Z1rLc1rVHK8</v>
+        <v>NI0QRzJvQ0k</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Mobile phone number</v>
+        <v>Date of birth is estimated</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
@@ -4121,15 +4121,15 @@
         <v/>
       </c>
       <c r="E5" s="5" t="str">
-        <v>fctSQp5nAYl</v>
+        <v>Z1rLc1rVHK8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>National ID</v>
+        <v>First Name</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v/>
+        <v>first_name</v>
       </c>
       <c r="C6" s="4" t="str">
         <v/>
@@ -4138,23 +4138,108 @@
         <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <v>Ewi7FUfcHAD</v>
+        <v>sB1IHYu2xQT</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
+        <v>Home Address</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <v>patinfo_resadmin0</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D7" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E7" s="5" t="str">
+        <v>Xhdn49gUd52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="str">
+        <v>Mobile phone number</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E8" s="4" t="str">
+        <v>fctSQp5nAYl</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="str">
+        <v>National ID</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C9" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D9" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E9" s="5" t="str">
+        <v>Ewi7FUfcHAD</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="str">
+        <v>Sex</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <v>patinfo_sex</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D10" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E10" s="4" t="str">
+        <v>oindugucx72</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="str">
+        <v>Surname</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <v>surname</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <v>The patient's surname (family name)</v>
+      </c>
+      <c r="D11" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E11" s="5" t="str">
+        <v>ENRjVGxVL6l</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="str">
         <v>Unique System Identifier (EPI)</v>
       </c>
-      <c r="B7" s="5" t="str">
-        <v/>
-      </c>
-      <c r="C7" s="5" t="str">
+      <c r="B12" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C12" s="4" t="str">
         <v>System-generated unique ID following pattern: EPI prefix + value randomly generated (#####) - Customize the length depending on the target population of your implementation</v>
       </c>
-      <c r="D7" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E7" s="5" t="str">
+      <c r="D12" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E12" s="4" t="str">
         <v>KSr2yTdu1AI</v>
       </c>
     </row>
@@ -4197,7 +4282,7 @@
         <v>Person</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-03-16</v>
+        <v>2021-03-19</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4478,10 +4563,10 @@
         <v>Vaccination</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>Underlying Conditions</v>
+        <v>Vaccination information</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>COVAC - Renal Disease</v>
+        <v>COVAC - Vaccine Manufacturer</v>
       </c>
     </row>
     <row r="21">
@@ -4489,10 +4574,10 @@
         <v>Vaccination</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Vaccination information</v>
+        <v>Underlying Conditions</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>COVAC - Vaccine Manufacturer</v>
+        <v>COVAC - Renal Disease</v>
       </c>
     </row>
     <row r="22">
@@ -4503,7 +4588,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>COVAC - Total doses</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
     </row>
     <row r="23">
@@ -4514,7 +4599,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>COVAC - Multiple products used - Explain</v>
+        <v>COVAC - Total doses</v>
       </c>
     </row>
     <row r="24">

--- a/metadata/COVAC_Tracker/COVAC_TRACKER_V1_DHIS2.33/reference.xlsx
+++ b/metadata/COVAC_Tracker/COVAC_TRACKER_V1_DHIS2.33/reference.xlsx
@@ -13,27 +13,28 @@
     <sheet name="programIndicators" sheetId="8" r:id="rId8"/>
     <sheet name="programRules" sheetId="9" r:id="rId9"/>
     <sheet name="programTrackedEntityAttributes" sheetId="10" r:id="rId10"/>
-    <sheet name="dataElements" sheetId="11" r:id="rId11"/>
-    <sheet name="dataElementGroups" sheetId="12" r:id="rId12"/>
-    <sheet name="categoryCombos" sheetId="13" r:id="rId13"/>
-    <sheet name="categories" sheetId="14" r:id="rId14"/>
-    <sheet name="categoryOptions" sheetId="15" r:id="rId15"/>
-    <sheet name="categoryOptionCombos" sheetId="16" r:id="rId16"/>
-    <sheet name="optionSets" sheetId="17" r:id="rId17"/>
-    <sheet name="options" sheetId="18" r:id="rId18"/>
-    <sheet name="indicatorGroups" sheetId="19" r:id="rId19"/>
-    <sheet name="indicators" sheetId="20" r:id="rId20"/>
-    <sheet name="indicatorTypes" sheetId="21" r:id="rId21"/>
-    <sheet name="dashboards" sheetId="22" r:id="rId22"/>
-    <sheet name="dashboardItems" sheetId="23" r:id="rId23"/>
-    <sheet name="charts" sheetId="24" r:id="rId24"/>
-    <sheet name="reportTables" sheetId="25" r:id="rId25"/>
-    <sheet name="maps" sheetId="26" r:id="rId26"/>
-    <sheet name="eventCharts" sheetId="27" r:id="rId27"/>
-    <sheet name="trackedEntityInstanceFilters" sheetId="28" r:id="rId28"/>
-    <sheet name="programNotificationTemplates" sheetId="29" r:id="rId29"/>
-    <sheet name="userGroups" sheetId="30" r:id="rId30"/>
-    <sheet name="users" sheetId="31" r:id="rId31"/>
+    <sheet name="attributes" sheetId="11" r:id="rId11"/>
+    <sheet name="dataElements" sheetId="12" r:id="rId12"/>
+    <sheet name="dataElementGroups" sheetId="13" r:id="rId13"/>
+    <sheet name="categoryCombos" sheetId="14" r:id="rId14"/>
+    <sheet name="categories" sheetId="15" r:id="rId15"/>
+    <sheet name="categoryOptions" sheetId="16" r:id="rId16"/>
+    <sheet name="categoryOptionCombos" sheetId="17" r:id="rId17"/>
+    <sheet name="optionSets" sheetId="18" r:id="rId18"/>
+    <sheet name="options" sheetId="19" r:id="rId19"/>
+    <sheet name="indicatorGroups" sheetId="20" r:id="rId20"/>
+    <sheet name="indicators" sheetId="21" r:id="rId21"/>
+    <sheet name="indicatorTypes" sheetId="22" r:id="rId22"/>
+    <sheet name="dashboards" sheetId="23" r:id="rId23"/>
+    <sheet name="dashboardItems" sheetId="24" r:id="rId24"/>
+    <sheet name="charts" sheetId="25" r:id="rId25"/>
+    <sheet name="reportTables" sheetId="26" r:id="rId26"/>
+    <sheet name="maps" sheetId="27" r:id="rId27"/>
+    <sheet name="eventCharts" sheetId="28" r:id="rId28"/>
+    <sheet name="trackedEntityInstanceFilters" sheetId="29" r:id="rId29"/>
+    <sheet name="programNotificationTemplates" sheetId="30" r:id="rId30"/>
+    <sheet name="userGroups" sheetId="31" r:id="rId31"/>
+    <sheet name="users" sheetId="32" r:id="rId32"/>
   </sheets>
 </workbook>
 </file>
@@ -481,7 +482,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>V1.1.2</v>
+        <v>V1.0.5</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +498,7 @@
         <v>Created</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>20210406T115721</v>
+        <v>20210602T111120</v>
       </c>
     </row>
     <row r="7">
@@ -505,7 +506,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAC_TRACKER_V1.1.2_DHIS2.33.8-3c90b70_20210406T115721</v>
+        <v>COVAC_TRACKER_V1.0.5_DHIS2.33.8-3c90b70_20210602T111120</v>
       </c>
     </row>
   </sheetData>
@@ -736,7 +737,94 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <v>Shortname</v>
+      </c>
+      <c r="C1" s="3" t="str">
+        <v>Last updated</v>
+      </c>
+      <c r="D1" s="3" t="str">
+        <v>UID</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="str">
+        <v>Code (ICD-10)</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <v>ICD-10</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D2" s="4" t="str">
+        <v>iehcXLBKVWM</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="str">
+        <v>Code (Loinc)</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <v>Loinc</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D3" s="5" t="str">
+        <v>mpXON5igCG1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="str">
+        <v>Code (SNOMED)</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <v>SNOMED</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D4" s="4" t="str">
+        <v>I6u65yRc0ct</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="str">
+        <v>Data element for aggregate data export</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <v>Data element for aggregate data export</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D5" s="5" t="str">
+        <v>vudyDP7jUy5</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -959,16 +1047,16 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAC - Immunodeficiency</v>
+        <v>COVAC - Health worker identification</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COVAC - Immunodeficiency</v>
+        <v>COVAC - health worker ID</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>Covac_Comcond_immuno</v>
+        <v/>
       </c>
       <c r="D10" s="4" t="str">
-        <v/>
+        <v>Name or health worker ID of the person performing the vaccination</v>
       </c>
       <c r="E10" s="4" t="str">
         <v>default</v>
@@ -977,21 +1065,21 @@
         <v/>
       </c>
       <c r="G10" s="4" t="str">
-        <v>MuZ9dMVXpuM</v>
+        <v>dEHqFKH1Ofy</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>COVAC - Last Dose</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COVAC - Last Dose</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v/>
+        <v>Covac_Comcond_immuno</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>This is the last dose in the course</v>
+        <v/>
       </c>
       <c r="E11" s="5" t="str">
         <v>default</v>
@@ -1000,21 +1088,21 @@
         <v/>
       </c>
       <c r="G11" s="5" t="str">
-        <v>DSOWCIdQ8Tr</v>
+        <v>MuZ9dMVXpuM</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>COVAC - Malignancy</v>
+        <v>COVAC - Last Dose</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>COVAC - Malignancy</v>
+        <v>COVAC - Last Dose</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>Covac_Comcond_malig</v>
+        <v/>
       </c>
       <c r="D12" s="4" t="str">
-        <v>COVAC - Malignancy</v>
+        <v>This is the last dose in the course</v>
       </c>
       <c r="E12" s="4" t="str">
         <v>default</v>
@@ -1023,21 +1111,21 @@
         <v/>
       </c>
       <c r="G12" s="4" t="str">
-        <v>xVxLMku5DMX</v>
+        <v>DSOWCIdQ8Tr</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>COVAC - Multiple products used - Explain</v>
+        <v>COVAC - Malignancy</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Multiple products explanation</v>
+        <v>COVAC - Malignancy</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v/>
+        <v>Covac_Comcond_malig</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v/>
+        <v>COVAC - Malignancy</v>
       </c>
       <c r="E13" s="5" t="str">
         <v>default</v>
@@ -1046,21 +1134,21 @@
         <v/>
       </c>
       <c r="G13" s="5" t="str">
-        <v>OAxinuYFDG6</v>
+        <v>xVxLMku5DMX</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>COVAC - Neurological/Neuromuscular</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>COVAC - Neurological/Neuromuscular</v>
+        <v>Multiple products explanation</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>COVAC_Comcond_neuro</v>
+        <v/>
       </c>
       <c r="D14" s="4" t="str">
-        <v>Chronic neurological or neuromuscular disease</v>
+        <v/>
       </c>
       <c r="E14" s="4" t="str">
         <v>default</v>
@@ -1069,21 +1157,21 @@
         <v/>
       </c>
       <c r="G14" s="4" t="str">
-        <v>VCetMtYu1DY</v>
+        <v>OAxinuYFDG6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>COVAC - Pregnancy</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAC - Pregnancy</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>Comcond_pregnant</v>
+        <v>COVAC_Comcond_neuro</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>Is the patient pregnant or lactating?</v>
+        <v>Chronic neurological or neuromuscular disease</v>
       </c>
       <c r="E15" s="5" t="str">
         <v>default</v>
@@ -1092,21 +1180,21 @@
         <v/>
       </c>
       <c r="G15" s="5" t="str">
-        <v>BfNZcj99yz4</v>
+        <v>VCetMtYu1DY</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>COVAC - Pregnancy gestation</v>
+        <v>COVAC - Pregnancy</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAC - Pregnancy gestation</v>
+        <v>COVAC - Pregnancy</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>covac_pregnancy_gestation</v>
+        <v>Comcond_pregnant</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>Pregnancy gestation (weeks)</v>
+        <v>Is the patient pregnant or lactating?</v>
       </c>
       <c r="E16" s="4" t="str">
         <v>default</v>
@@ -1115,21 +1203,21 @@
         <v/>
       </c>
       <c r="G16" s="4" t="str">
-        <v>CBAs12YL4g7</v>
+        <v>BfNZcj99yz4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>COVAC Previously infected with COVID</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>Previously infected with COVID</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v/>
+        <v>covac_pregnancy_gestation</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>Has the patient been infected with COVID-19 within the last 90 days?</v>
+        <v>Pregnancy gestation (weeks)</v>
       </c>
       <c r="E17" s="5" t="str">
         <v>default</v>
@@ -1138,21 +1226,21 @@
         <v/>
       </c>
       <c r="G17" s="5" t="str">
-        <v>LOU9t0aR0z7</v>
+        <v>CBAs12YL4g7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>COVAC - Renal Disease</v>
+        <v>COVAC - Previously infected with COVID</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>COVAC - Renal Disease</v>
+        <v>Previously infected with COVID</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>Covac_Comcond_renal</v>
+        <v/>
       </c>
       <c r="D18" s="4" t="str">
-        <v/>
+        <v>Has the patient been infected with COVID-19 within the last 90 days?</v>
       </c>
       <c r="E18" s="4" t="str">
         <v>default</v>
@@ -1161,18 +1249,18 @@
         <v/>
       </c>
       <c r="G18" s="4" t="str">
-        <v>gW4pd818Sw8</v>
+        <v>LOU9t0aR0z7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>COVAC Suggested date for next dose</v>
+        <v>COVAC - Renal Disease</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>Next dose date</v>
+        <v>COVAC - Renal Disease</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v/>
+        <v>Covac_Comcond_renal</v>
       </c>
       <c r="D19" s="5" t="str">
         <v/>
@@ -1184,21 +1272,21 @@
         <v/>
       </c>
       <c r="G19" s="5" t="str">
-        <v>FFWcps4MfuH</v>
+        <v>gW4pd818Sw8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>COVAC - Total doses</v>
+        <v>COVAC - Suggested date for next dose</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>COVAC Total doses</v>
+        <v>Next dose date</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>totalDoses</v>
+        <v/>
       </c>
       <c r="D20" s="4" t="str">
-        <v>Total doses required for this vaccine product</v>
+        <v/>
       </c>
       <c r="E20" s="4" t="str">
         <v>default</v>
@@ -1207,21 +1295,21 @@
         <v/>
       </c>
       <c r="G20" s="4" t="str">
-        <v>PamkjF1JUnE</v>
+        <v>FFWcps4MfuH</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>COVAC - Underlying condition</v>
+        <v>COVAC - Total doses</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAC - Underlying condition</v>
+        <v>COVAC Total doses</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>Comcondition_present</v>
+        <v>totalDoses</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v/>
+        <v>Total doses required for this vaccine product</v>
       </c>
       <c r="E21" s="5" t="str">
         <v>default</v>
@@ -1230,18 +1318,18 @@
         <v/>
       </c>
       <c r="G21" s="5" t="str">
-        <v>bCtWZGjSWM8</v>
+        <v>PamkjF1JUnE</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>COVAC - Underlying condition Other</v>
+        <v>COVAC - Underlying condition</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAC - Underlying condition Other</v>
+        <v>COVAC - Underlying condition</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>covac_Comcond_other</v>
+        <v>Comcondition_present</v>
       </c>
       <c r="D22" s="4" t="str">
         <v/>
@@ -1253,18 +1341,18 @@
         <v/>
       </c>
       <c r="G22" s="4" t="str">
-        <v>dpyQUtizp7s</v>
+        <v>bCtWZGjSWM8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>COVAC - Vaccine Manufacturer</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>COVAC - Vaccine Manufacturer</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>COVAC_vaccine_manufacturer</v>
+        <v>covac_Comcond_other</v>
       </c>
       <c r="D23" s="5" t="str">
         <v/>
@@ -1276,21 +1364,21 @@
         <v/>
       </c>
       <c r="G23" s="5" t="str">
-        <v>rpkH9ZPGJcX</v>
+        <v>dpyQUtizp7s</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>COVAC - Vaccine Name</v>
+        <v>COVAC - Vaccine Brand</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>COVAC - Vaccine Name</v>
+        <v>Vaccine Brand</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>COVAC_vaccine_name</v>
+        <v/>
       </c>
       <c r="D24" s="4" t="str">
-        <v>Name of vaccine product</v>
+        <v/>
       </c>
       <c r="E24" s="4" t="str">
         <v>default</v>
@@ -1299,6 +1387,52 @@
         <v/>
       </c>
       <c r="G24" s="4" t="str">
+        <v>rWYryQb3ohn</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="str">
+        <v>COVAC - Vaccine Manufacturer</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <v>COVAC - Vaccine Manufacturer</v>
+      </c>
+      <c r="C25" s="5" t="str">
+        <v>COVAC_vaccine_manufacturer</v>
+      </c>
+      <c r="D25" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E25" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F25" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G25" s="5" t="str">
+        <v>rpkH9ZPGJcX</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="str">
+        <v>COVAC - Vaccine Name</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <v>COVAC - Vaccine Name</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <v>COVAC_vaccine_name</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <v>Name of vaccine product</v>
+      </c>
+      <c r="E26" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F26" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G26" s="4" t="str">
         <v>bbnyNYD1wgS</v>
       </c>
     </row>
@@ -1306,9 +1440,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1330,7 +1464,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAC - Neurological/Neuromuscular</v>
+        <v>COVAC - Renal Disease</v>
       </c>
     </row>
     <row r="3">
@@ -1338,7 +1472,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAC - Immunodeficiency</v>
+        <v>COVAC - Underlying condition</v>
       </c>
     </row>
     <row r="4">
@@ -1346,7 +1480,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAC - Renal Disease</v>
+        <v>COVAC - Suggested date for next dose</v>
       </c>
     </row>
     <row r="5">
@@ -1354,7 +1488,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAC - Multiple products used - Explain</v>
+        <v>COVAC- Batch Number</v>
       </c>
     </row>
     <row r="6">
@@ -1362,7 +1496,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAC - Total doses</v>
+        <v>COVAC - Vaccine Manufacturer</v>
       </c>
     </row>
     <row r="7">
@@ -1370,7 +1504,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAC - Underlying condition</v>
+        <v>COVAC - Pregnancy</v>
       </c>
     </row>
     <row r="8">
@@ -1378,7 +1512,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAC - Vaccine Name</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
     </row>
     <row r="9">
@@ -1386,7 +1520,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>COVAC - Last Dose</v>
+        <v>COVAC - Dose Number</v>
       </c>
     </row>
     <row r="10">
@@ -1394,7 +1528,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COVAC- Batch Number</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
     </row>
     <row r="11">
@@ -1402,7 +1536,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COVAC - Allergic reaction after first dose</v>
+        <v>COVAC - Vaccine Brand</v>
       </c>
     </row>
     <row r="12">
@@ -1410,7 +1544,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>COVAC - Underlying condition Other</v>
+        <v>COVAC - Chronic Lung Disease</v>
       </c>
     </row>
     <row r="13">
@@ -1418,7 +1552,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAC - Vaccine Manufacturer</v>
+        <v>COVAC - AEFIs present</v>
       </c>
     </row>
     <row r="14">
@@ -1426,7 +1560,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>COVAC - Pregnancy</v>
+        <v>COVAC - Health worker identification</v>
       </c>
     </row>
     <row r="15">
@@ -1434,7 +1568,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAC - Dose Expiry Date</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
     </row>
     <row r="16">
@@ -1442,7 +1576,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAC - Diabetes</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
     </row>
     <row r="17">
@@ -1450,7 +1584,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAC - Pregnancy gestation</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
     </row>
     <row r="18">
@@ -1458,7 +1592,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>COVAC - Dose Number</v>
+        <v>COVAC - Total doses</v>
       </c>
     </row>
     <row r="19">
@@ -1466,7 +1600,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAC - Malignancy</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
     </row>
     <row r="20">
@@ -1474,7 +1608,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>COVAC - Cardiovascular Disease</v>
+        <v>COVAC - Previously infected with COVID</v>
       </c>
     </row>
     <row r="21">
@@ -1482,7 +1616,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAC - Chronic Lung Disease</v>
+        <v>COVAC - Last Dose</v>
       </c>
     </row>
     <row r="22">
@@ -1490,7 +1624,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAC - AEFIs present</v>
+        <v>COVAC - Allergic reaction after first dose</v>
       </c>
     </row>
     <row r="23">
@@ -1498,7 +1632,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>COVAC Suggested date for next dose</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
     </row>
     <row r="24">
@@ -1506,14 +1640,30 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>COVAC Previously infected with COVID</v>
+        <v>COVAC - Diabetes</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="str">
+        <v>COVAC - Covid-19 vaccination registry</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <v>COVAC - Pregnancy gestation</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="str">
+        <v>COVAC - Covid-19 vaccination registry</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <v>COVAC - Malignancy</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1558,7 +1708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1597,44 +1747,6 @@
       </c>
       <c r="D2" s="4" t="str">
         <v>default</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>Last updated</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>UID</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>xYerKDKCefk</v>
       </c>
     </row>
   </sheetData>
@@ -1672,7 +1784,7 @@
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>HllvX50cXC0</v>
+        <v>xYerKDKCefk</v>
       </c>
     </row>
   </sheetData>
@@ -1681,7 +1793,45 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <v>Last updated</v>
+      </c>
+      <c r="C1" s="3" t="str">
+        <v>UID</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C2" s="4" t="str">
+        <v>HllvX50cXC0</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1764,71 +1914,85 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAC Vaccine Manufacturers</v>
+        <v>COVAC Vaccine brand</v>
       </c>
       <c r="B6" s="4" t="str">
         <v/>
       </c>
       <c r="C6" s="4" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>UJTnyCB3cyk</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>Moderna; AstraZeneca; BioNTech/Pfizer; Gamaleya; Sinopharm / BIBP; SK Bio AstraZeneca</v>
+        <v>Astra-Zeneca; Moderna; BioNTech-Pfizer; Sinopharm; Gamaleya</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAC Vaccine Names</v>
+        <v>COVAC Vaccine Manufacturers</v>
       </c>
       <c r="B7" s="5" t="str">
         <v/>
       </c>
       <c r="C7" s="5" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>DtOGtoLbaB5</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>AZD1222 / AstraZeneca; BNT162b2 / COMIRNATY Tozinameran (INN) / BioNTech/Pfizer; mRNA-1273 / Moderna; Sputnik V / Gamaleya; SARS-CoV-2 Vaccine (VeroCell), Inactivated / Sinopharm</v>
+        <v>Moderna; AstraZeneca; BioNTech/Pfizer; Gamaleya; Sinopharm / BIBP; SK Bio AstraZeneca</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>Occupation - COVID</v>
+        <v>COVAC Vaccine Names</v>
       </c>
       <c r="B8" s="4" t="str">
         <v/>
       </c>
       <c r="C8" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>VQo3HkUlMHc</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>Healthcare worker; Law enforcement/ Firefighter; Banker; Driver / housekeeping staff; Teacher; Hotelier / airline personel; Retail (essential); Retail (non essential); Social worker/ volunteer; Retired; Student; Unemployed; Other</v>
+        <v>AZD1222 / AstraZeneca; BNT162b2 / COMIRNATY Tozinameran (INN) / BioNTech/Pfizer; mRNA-1273 / Moderna; Sputnik V / Gamaleya; SARS-CoV-2 Vaccine (VeroCell), Inactivated / Sinopharm</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>Sex</v>
+        <v>Occupation - COVID</v>
       </c>
       <c r="B9" s="5" t="str">
         <v/>
       </c>
       <c r="C9" s="5" t="str">
-        <v>WDUwjiW2rGH</v>
+        <v>CNNH0YKxRh9</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>Female; Male</v>
+        <v>Healthcare worker; Law enforcement/ Firefighter; Banker; Driver / housekeeping staff; Teacher; Hotelier / airline personel; Retail (essential); Retail (non essential); Social worker/ volunteer; Retired; Student; Unemployed; Other</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
+        <v>Sex</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C10" s="4" t="str">
+        <v>WDUwjiW2rGH</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <v>Female; Male</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="str">
         <v>Yes/No/Unknown</v>
       </c>
-      <c r="B10" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C10" s="4" t="str">
+      <c r="B11" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C11" s="5" t="str">
         <v>L6eMZDJkCwX</v>
       </c>
-      <c r="D10" s="4" t="str">
+      <c r="D11" s="5" t="str">
         <v>Yes; No; Unknown</v>
       </c>
     </row>
@@ -1836,9 +2000,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1971,27 +2135,27 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>gKvIUJwVIHi</v>
+        <v>xyjoGDPIRBe</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>AstraZeneca</v>
+        <v>Astra-Zeneca</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>astrazeneca</v>
+        <v>brandastrazeneca</v>
       </c>
       <c r="D8" s="4" t="str">
         <v/>
       </c>
       <c r="E8" s="4" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>UJTnyCB3cyk</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>wCXR8ztOP2N</v>
+        <v>gKvIUJwVIHi</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>AZD1222 / AstraZeneca</v>
+        <v>AstraZeneca</v>
       </c>
       <c r="C9" s="5" t="str">
         <v>astrazeneca</v>
@@ -2000,188 +2164,188 @@
         <v/>
       </c>
       <c r="E9" s="5" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>UvR0km5ntbi</v>
+        <v>wCXR8ztOP2N</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Banker</v>
+        <v>AZD1222 / AstraZeneca</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>banker</v>
+        <v>astrazeneca</v>
       </c>
       <c r="D10" s="4" t="str">
         <v/>
       </c>
       <c r="E10" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>FMOE7pmr0JD</v>
+        <v>UvR0km5ntbi</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>BioNTech/Pfizer</v>
+        <v>Banker</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>biontechpfizer</v>
+        <v>banker</v>
       </c>
       <c r="D11" s="5" t="str">
         <v/>
       </c>
       <c r="E11" s="5" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>B26BIJSeQy0</v>
+        <v>sggdw6M2AzM</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>BNT162b2 / COMIRNATY Tozinameran (INN) / BioNTech/Pfizer</v>
+        <v>BioNTech-Pfizer</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>biontechpfizer</v>
+        <v>brandpfizerbiontech</v>
       </c>
       <c r="D12" s="4" t="str">
         <v/>
       </c>
       <c r="E12" s="4" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>UJTnyCB3cyk</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>PoeQ0Zb1avN</v>
+        <v>FMOE7pmr0JD</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Booster dose</v>
+        <v>BioNTech/Pfizer</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>BOOSTER</v>
+        <v>biontechpfizer</v>
       </c>
       <c r="D13" s="5" t="str">
         <v/>
       </c>
       <c r="E13" s="5" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>Gx9kgkrZj9y</v>
+        <v>B26BIJSeQy0</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Driver / housekeeping staff</v>
+        <v>BNT162b2 / COMIRNATY Tozinameran (INN) / BioNTech/Pfizer</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>driver_housekeeping_staff</v>
+        <v>biontechpfizer</v>
       </c>
       <c r="D14" s="4" t="str">
         <v/>
       </c>
       <c r="E14" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>FKKrOBBFgs1</v>
+        <v>PoeQ0Zb1avN</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>Female</v>
+        <v>Booster dose</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>Female</v>
+        <v>BOOSTER</v>
       </c>
       <c r="D15" s="5" t="str">
         <v/>
       </c>
       <c r="E15" s="5" t="str">
-        <v>WDUwjiW2rGH</v>
+        <v>oj3CWm4hpPb</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>n1p4obma3dp</v>
+        <v>Gx9kgkrZj9y</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>Gamaleya</v>
+        <v>Driver / housekeeping staff</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>gamaleya</v>
+        <v>driver_housekeeping_staff</v>
       </c>
       <c r="D16" s="4" t="str">
         <v/>
       </c>
       <c r="E16" s="4" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>HGNGJ3lHrFG</v>
+        <v>FKKrOBBFgs1</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>Healthcare worker</v>
+        <v>Female</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>healthcare_worker</v>
+        <v>Female</v>
       </c>
       <c r="D17" s="5" t="str">
         <v/>
       </c>
       <c r="E17" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>WDUwjiW2rGH</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>bVYOqnn9R2r</v>
+        <v>n1p4obma3dp</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Hotelier / airline personel</v>
+        <v>Gamaleya</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>hotelier_airline_personel</v>
+        <v>gamaleya</v>
       </c>
       <c r="D18" s="4" t="str">
         <v/>
       </c>
       <c r="E18" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>xmyy2NiyJaI</v>
+        <v>utlYKxuxhJu</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>Lactating</v>
+        <v>Gamaleya</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>COVACLactating</v>
+        <v>brandgamaleya</v>
       </c>
       <c r="D19" s="5" t="str">
         <v/>
       </c>
       <c r="E19" s="5" t="str">
-        <v>ilxtWultuYP</v>
+        <v>UJTnyCB3cyk</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>EErrO8Fyu43</v>
+        <v>HGNGJ3lHrFG</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>Law enforcement/ Firefighter</v>
+        <v>Healthcare worker</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>law_enforcement_firefighter</v>
+        <v>healthcare_worker</v>
       </c>
       <c r="D20" s="4" t="str">
         <v/>
@@ -2192,166 +2356,166 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>Ii4IxCLWEFn</v>
+        <v>bVYOqnn9R2r</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Male</v>
+        <v>Hotelier / airline personel</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>Male</v>
+        <v>hotelier_airline_personel</v>
       </c>
       <c r="D21" s="5" t="str">
         <v/>
       </c>
       <c r="E21" s="5" t="str">
-        <v>WDUwjiW2rGH</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>labbhFBSyp4</v>
+        <v>xmyy2NiyJaI</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>Moderna</v>
+        <v>Lactating</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>moderna</v>
+        <v>COVACLactating</v>
       </c>
       <c r="D22" s="4" t="str">
         <v/>
       </c>
       <c r="E22" s="4" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>ilxtWultuYP</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>yeTPD0qoaz7</v>
+        <v>EErrO8Fyu43</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>mRNA-1273 / Moderna</v>
+        <v>Law enforcement/ Firefighter</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>moderna</v>
+        <v>law_enforcement_firefighter</v>
       </c>
       <c r="D23" s="5" t="str">
         <v/>
       </c>
       <c r="E23" s="5" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>R98tI2c6rF5</v>
+        <v>Ii4IxCLWEFn</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>No</v>
+        <v>Male</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>No</v>
+        <v>Male</v>
       </c>
       <c r="D24" s="4" t="str">
         <v/>
       </c>
       <c r="E24" s="4" t="str">
-        <v>L6eMZDJkCwX</v>
+        <v>WDUwjiW2rGH</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>gVqGaROtask</v>
+        <v>labbhFBSyp4</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>No</v>
+        <v>Moderna</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>not_pregnant</v>
+        <v>moderna</v>
       </c>
       <c r="D25" s="5" t="str">
         <v/>
       </c>
       <c r="E25" s="5" t="str">
-        <v>ilxtWultuYP</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>jbAJfe9Nqtk</v>
+        <v>mb5EvuSwOuI</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Other</v>
+        <v>Moderna</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>other</v>
+        <v>brandmoderna</v>
       </c>
       <c r="D26" s="4" t="str">
         <v/>
       </c>
       <c r="E26" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>UJTnyCB3cyk</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>scFBcsNG5JT</v>
+        <v>yeTPD0qoaz7</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>Pregnant</v>
+        <v>mRNA-1273 / Moderna</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>COVACPregnant</v>
+        <v>moderna</v>
       </c>
       <c r="D27" s="5" t="str">
         <v/>
       </c>
       <c r="E27" s="5" t="str">
-        <v>ilxtWultuYP</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>zIN2FnIIZC2</v>
+        <v>R98tI2c6rF5</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>Retail (essential)</v>
+        <v>No</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>retail_essentials</v>
+        <v>No</v>
       </c>
       <c r="D28" s="4" t="str">
         <v/>
       </c>
       <c r="E28" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>L6eMZDJkCwX</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>SVcm0QZbxYn</v>
+        <v>gVqGaROtask</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>Retail (non essential)</v>
+        <v>No</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>retail_non_essential</v>
+        <v>not_pregnant</v>
       </c>
       <c r="D29" s="5" t="str">
         <v/>
       </c>
       <c r="E29" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>ilxtWultuYP</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>Sw1isix3dwU</v>
+        <v>jbAJfe9Nqtk</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>Retired</v>
+        <v>Other</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>retired</v>
+        <v>other</v>
       </c>
       <c r="D30" s="4" t="str">
         <v/>
@@ -2362,98 +2526,98 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>HxFNfoxk7ac</v>
+        <v>scFBcsNG5JT</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>Rural</v>
+        <v>Pregnant</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>RURAL</v>
+        <v>COVACPregnant</v>
       </c>
       <c r="D31" s="5" t="str">
         <v/>
       </c>
       <c r="E31" s="5" t="str">
-        <v>VWzgQENmzPK</v>
+        <v>ilxtWultuYP</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>clKOrDK3Gw0</v>
+        <v>zIN2FnIIZC2</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>SARS-CoV-2 Vaccine (VeroCell), Inactivated / Sinopharm</v>
+        <v>Retail (essential)</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>sinopharm</v>
+        <v>retail_essentials</v>
       </c>
       <c r="D32" s="4" t="str">
         <v/>
       </c>
       <c r="E32" s="4" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>CkibqhWdy3q</v>
+        <v>SVcm0QZbxYn</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>Sinopharm / BIBP</v>
+        <v>Retail (non essential)</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>sinopharm</v>
+        <v>retail_non_essential</v>
       </c>
       <c r="D33" s="5" t="str">
         <v/>
       </c>
       <c r="E33" s="5" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>Yjp2PzOQiMa</v>
+        <v>Sw1isix3dwU</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>SK Bio AstraZeneca</v>
+        <v>Retired</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>astrazenecaskbio</v>
+        <v>retired</v>
       </c>
       <c r="D34" s="4" t="str">
         <v/>
       </c>
       <c r="E34" s="4" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>SD1oprpITgl</v>
+        <v>HxFNfoxk7ac</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>Social worker/ volunteer</v>
+        <v>Rural</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>social_worker_volunteer</v>
+        <v>RURAL</v>
       </c>
       <c r="D35" s="5" t="str">
         <v/>
       </c>
       <c r="E35" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>VWzgQENmzPK</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>TVWwdI7Mlrh</v>
+        <v>clKOrDK3Gw0</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>Sputnik V / Gamaleya</v>
+        <v>SARS-CoV-2 Vaccine (VeroCell), Inactivated / Sinopharm</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>gamaleya</v>
+        <v>sinopharm</v>
       </c>
       <c r="D36" s="4" t="str">
         <v/>
@@ -2464,149 +2628,189 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>GUiVk7RiR3p</v>
+        <v>ceu5qFoUfo9</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>Student</v>
+        <v>Sinopharm</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>student</v>
+        <v>brandsinopharm</v>
       </c>
       <c r="D37" s="5" t="str">
         <v/>
       </c>
       <c r="E37" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>UJTnyCB3cyk</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>ahtoNsMUVFa</v>
+        <v>CkibqhWdy3q</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>Teacher</v>
+        <v>Sinopharm / BIBP</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>teacher</v>
+        <v>sinopharm</v>
       </c>
       <c r="D38" s="4" t="str">
         <v/>
       </c>
       <c r="E38" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>fWAvnP7mf98</v>
+        <v>Yjp2PzOQiMa</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>Unemployed</v>
+        <v>SK Bio AstraZeneca</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>unemployed</v>
+        <v>astrazenecaskbio</v>
       </c>
       <c r="D39" s="5" t="str">
         <v/>
       </c>
       <c r="E39" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>pqxvAQU1z9W</v>
+        <v>SD1oprpITgl</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>Unknown</v>
+        <v>Social worker/ volunteer</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>Unknown</v>
+        <v>social_worker_volunteer</v>
       </c>
       <c r="D40" s="4" t="str">
         <v/>
       </c>
       <c r="E40" s="4" t="str">
-        <v>L6eMZDJkCwX</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>IHYwYAtvjCY</v>
+        <v>TVWwdI7Mlrh</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>Urban</v>
+        <v>Sputnik V / Gamaleya</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>URBAN</v>
+        <v>gamaleya</v>
       </c>
       <c r="D41" s="5" t="str">
         <v/>
       </c>
       <c r="E41" s="5" t="str">
-        <v>VWzgQENmzPK</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
+        <v>GUiVk7RiR3p</v>
+      </c>
+      <c r="B42" s="4" t="str">
+        <v>Student</v>
+      </c>
+      <c r="C42" s="4" t="str">
+        <v>student</v>
+      </c>
+      <c r="D42" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E42" s="4" t="str">
+        <v>CNNH0YKxRh9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="str">
+        <v>ahtoNsMUVFa</v>
+      </c>
+      <c r="B43" s="5" t="str">
+        <v>Teacher</v>
+      </c>
+      <c r="C43" s="5" t="str">
+        <v>teacher</v>
+      </c>
+      <c r="D43" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E43" s="5" t="str">
+        <v>CNNH0YKxRh9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="str">
+        <v>fWAvnP7mf98</v>
+      </c>
+      <c r="B44" s="4" t="str">
+        <v>Unemployed</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <v>unemployed</v>
+      </c>
+      <c r="D44" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E44" s="4" t="str">
+        <v>CNNH0YKxRh9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="str">
+        <v>pqxvAQU1z9W</v>
+      </c>
+      <c r="B45" s="5" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="C45" s="5" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="D45" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E45" s="5" t="str">
+        <v>L6eMZDJkCwX</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="str">
+        <v>IHYwYAtvjCY</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <v>Urban</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <v>URBAN</v>
+      </c>
+      <c r="D46" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E46" s="4" t="str">
+        <v>VWzgQENmzPK</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="str">
         <v>x9yVKkv9koc</v>
       </c>
-      <c r="B42" s="4" t="str">
+      <c r="B47" s="5" t="str">
         <v>Yes</v>
       </c>
-      <c r="C42" s="4" t="str">
+      <c r="C47" s="5" t="str">
         <v>Yes</v>
       </c>
-      <c r="D42" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E42" s="4" t="str">
+      <c r="D47" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E47" s="5" t="str">
         <v>L6eMZDJkCwX</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>Shortname</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>Last updated</v>
-      </c>
-      <c r="D1" s="3" t="str">
-        <v>UID</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="str">
-        <v>COVAC - Covid-19 Vaccine Registry</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D2" s="4" t="str">
-        <v>mhdLWWUIqUp</v>
       </c>
     </row>
   </sheetData>
@@ -2653,6 +2857,51 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <v>Shortname</v>
+      </c>
+      <c r="C1" s="3" t="str">
+        <v>Last updated</v>
+      </c>
+      <c r="D1" s="3" t="str">
+        <v>UID</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="str">
+        <v>COVAC - Covid-19 Vaccine Registry</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D2" s="4" t="str">
+        <v>mhdLWWUIqUp</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
@@ -2662,7 +2911,7 @@
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="172.7109375" customWidth="1"/>
+    <col min="5" max="5" width="171.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
@@ -2702,7 +2951,7 @@
         <v>Indicator group UID</v>
       </c>
     </row>
-    <row r="2" xml:space="preserve">
+    <row r="2">
       <c r="A2" s="4" t="str">
         <v>qbNdD4CF8K5</v>
       </c>
@@ -2715,9 +2964,8 @@
       <c r="D2" s="4" t="str">
         <v>COV-1-COV-c</v>
       </c>
-      <c r="E2" s="4" t="str" xml:space="preserve">
-        <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
-</v>
+      <c r="E2" s="4" t="str">
+        <v>The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1</v>
       </c>
       <c r="F2" s="4" t="str">
         <v>CPV-1 - COV-c</v>
@@ -2735,7 +2983,7 @@
         <v>mhdLWWUIqUp</v>
       </c>
     </row>
-    <row r="3" xml:space="preserve">
+    <row r="3">
       <c r="A3" s="5" t="str">
         <v>KI5DoTUGLEE</v>
       </c>
@@ -2748,9 +2996,8 @@
       <c r="D3" s="5" t="str">
         <v>COV-1-COV-c COVAX1</v>
       </c>
-      <c r="E3" s="5" t="str" xml:space="preserve">
-        <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
-</v>
+      <c r="E3" s="5" t="str">
+        <v>The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1</v>
       </c>
       <c r="F3" s="5" t="str">
         <v>COV-1 - COV-c</v>
@@ -2768,7 +3015,7 @@
         <v>mhdLWWUIqUp</v>
       </c>
     </row>
-    <row r="4" xml:space="preserve">
+    <row r="4">
       <c r="A4" s="4" t="str">
         <v>DFAxSmMm5pJ</v>
       </c>
@@ -2781,9 +3028,8 @@
       <c r="D4" s="4" t="str">
         <v>COV-1-COV-c COVAX2</v>
       </c>
-      <c r="E4" s="4" t="str" xml:space="preserve">
-        <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
-</v>
+      <c r="E4" s="4" t="str">
+        <v>The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1</v>
       </c>
       <c r="F4" s="4" t="str">
         <v>COV-1 - COV-c</v>
@@ -2801,7 +3047,7 @@
         <v>mhdLWWUIqUp</v>
       </c>
     </row>
-    <row r="5" xml:space="preserve">
+    <row r="5">
       <c r="A5" s="5" t="str">
         <v>JjIcypzBqPV</v>
       </c>
@@ -2814,9 +3060,8 @@
       <c r="D5" s="5" t="str">
         <v>COV-1-COV-c COVAX4</v>
       </c>
-      <c r="E5" s="5" t="str" xml:space="preserve">
-        <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
-</v>
+      <c r="E5" s="5" t="str">
+        <v>The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1</v>
       </c>
       <c r="F5" s="5" t="str">
         <v>COV-1 - COV-c</v>
@@ -2834,7 +3079,7 @@
         <v>mhdLWWUIqUp</v>
       </c>
     </row>
-    <row r="6" xml:space="preserve">
+    <row r="6">
       <c r="A6" s="4" t="str">
         <v>H7YS9Fxl1mR</v>
       </c>
@@ -2847,9 +3092,8 @@
       <c r="D6" s="4" t="str">
         <v>COV-1-COV-c COVAX3</v>
       </c>
-      <c r="E6" s="4" t="str" xml:space="preserve">
-        <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
-</v>
+      <c r="E6" s="4" t="str">
+        <v>The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1</v>
       </c>
       <c r="F6" s="4" t="str">
         <v>COV-1 - COV-c</v>
@@ -2867,7 +3111,7 @@
         <v>mhdLWWUIqUp</v>
       </c>
     </row>
-    <row r="7" xml:space="preserve">
+    <row r="7">
       <c r="A7" s="5" t="str">
         <v>EhnDZJruoYj</v>
       </c>
@@ -2880,9 +3124,8 @@
       <c r="D7" s="5" t="str">
         <v xml:space="preserve">COV-1-COV-c COVAX5 </v>
       </c>
-      <c r="E7" s="5" t="str" xml:space="preserve">
-        <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
-</v>
+      <c r="E7" s="5" t="str">
+        <v>The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1</v>
       </c>
       <c r="F7" s="5" t="str">
         <v>COV-1 - COV-c</v>
@@ -2904,7 +3147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2949,7 +3192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2987,7 +3230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -3426,7 +3669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -3584,7 +3827,7 @@
         <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>TEST TEST</v>
+        <v>Cumulative number of doses given last four weeks</v>
       </c>
       <c r="C11" s="5" t="str">
         <v/>
@@ -3597,7 +3840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3642,7 +3885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3701,7 +3944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3760,7 +4003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3831,7 +4074,62 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="str">
+        <v>Tracked Entity Type</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <v>Tracked Entity Type Attribute</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="str">
+        <v>Person</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <v>hKZ9AJpnVcG</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="str">
+        <v>Person</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <v>gqLw62UZlrD</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="str">
+        <v>Person</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <v>qb8PkSObwqh</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="str">
+        <v>Person</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <v>Wn1oudATlIS</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -3880,54 +4178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>Tracked Entity Type</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>Tracked Entity Type Attribute</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="str">
-        <v>Person</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v>hKZ9AJpnVcG</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="str">
-        <v>Person</v>
-      </c>
-      <c r="B3" s="5" t="str">
-        <v>gqLw62UZlrD</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="str">
-        <v>Person</v>
-      </c>
-      <c r="B4" s="4" t="str">
-        <v>qb8PkSObwqh</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -3987,7 +4238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -4092,10 +4343,10 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Date of birth</v>
+        <v>Date of birth is estimated</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>patinfo_ageonsetunit</v>
+        <v/>
       </c>
       <c r="C4" s="4" t="str">
         <v/>
@@ -4104,12 +4355,12 @@
         <v/>
       </c>
       <c r="E4" s="4" t="str">
-        <v>NI0QRzJvQ0k</v>
+        <v>Z1rLc1rVHK8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Date of birth is estimated</v>
+        <v>National ID</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
@@ -4121,32 +4372,32 @@
         <v/>
       </c>
       <c r="E5" s="5" t="str">
-        <v>Z1rLc1rVHK8</v>
+        <v>Ewi7FUfcHAD</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>First Name</v>
+        <v>Unique System Identifier (EPI)</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>first_name</v>
+        <v/>
       </c>
       <c r="C6" s="4" t="str">
-        <v/>
+        <v>System-generated unique ID following pattern: EPI prefix + value randomly generated (#####) - Customize the length depending on the target population of your implementation</v>
       </c>
       <c r="D6" s="4" t="str">
         <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <v>sB1IHYu2xQT</v>
+        <v>KSr2yTdu1AI</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>Home Address</v>
+        <v>Mobile phone number</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>patinfo_resadmin0</v>
+        <v/>
       </c>
       <c r="C7" s="5" t="str">
         <v/>
@@ -4155,15 +4406,15 @@
         <v/>
       </c>
       <c r="E7" s="5" t="str">
-        <v>Xhdn49gUd52</v>
+        <v>fctSQp5nAYl</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>Mobile phone number</v>
+        <v>Date of birth</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v/>
+        <v>patinfo_ageonsetunit</v>
       </c>
       <c r="C8" s="4" t="str">
         <v/>
@@ -4172,15 +4423,15 @@
         <v/>
       </c>
       <c r="E8" s="4" t="str">
-        <v>fctSQp5nAYl</v>
+        <v>NI0QRzJvQ0k</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>National ID</v>
+        <v>First Name</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v/>
+        <v>first_name</v>
       </c>
       <c r="C9" s="5" t="str">
         <v/>
@@ -4189,58 +4440,58 @@
         <v/>
       </c>
       <c r="E9" s="5" t="str">
-        <v>Ewi7FUfcHAD</v>
+        <v>sB1IHYu2xQT</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>Sex</v>
+        <v>Surname</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>patinfo_sex</v>
+        <v>surname</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v/>
+        <v>The patient's surname (family name)</v>
       </c>
       <c r="D10" s="4" t="str">
         <v/>
       </c>
       <c r="E10" s="4" t="str">
-        <v>oindugucx72</v>
+        <v>ENRjVGxVL6l</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>Surname</v>
+        <v>Sex</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>surname</v>
+        <v>patinfo_sex</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>The patient's surname (family name)</v>
+        <v/>
       </c>
       <c r="D11" s="5" t="str">
         <v/>
       </c>
       <c r="E11" s="5" t="str">
-        <v>ENRjVGxVL6l</v>
+        <v>oindugucx72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>Unique System Identifier (EPI)</v>
+        <v>Home Address</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v/>
+        <v>patinfo_resadmin0</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>System-generated unique ID following pattern: EPI prefix + value randomly generated (#####) - Customize the length depending on the target population of your implementation</v>
+        <v/>
       </c>
       <c r="D12" s="4" t="str">
         <v/>
       </c>
       <c r="E12" s="4" t="str">
-        <v>KSr2yTdu1AI</v>
+        <v>Xhdn49gUd52</v>
       </c>
     </row>
   </sheetData>
@@ -4282,7 +4533,7 @@
         <v>Person</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-03-19</v>
+        <v>2021-04-28</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4339,7 +4590,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -4423,7 +4674,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>COVAC Suggested date for next dose</v>
+        <v>COVAC - Suggested date for next dose</v>
       </c>
     </row>
     <row r="8">
@@ -4456,7 +4707,7 @@
         <v>Pre-immunization Questions</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>COVAC Previously infected with COVID</v>
+        <v>COVAC - Previously infected with COVID</v>
       </c>
     </row>
     <row r="11">
@@ -4497,10 +4748,10 @@
         <v>Vaccination</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Pre-immunization Questions</v>
+        <v>Underlying Conditions</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>COVAC - Allergic reaction after first dose</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
     </row>
     <row r="15">
@@ -4508,10 +4759,10 @@
         <v>Vaccination</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>Underlying Conditions</v>
+        <v>Pre-immunization Questions</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>COVAC - Cardiovascular Disease</v>
+        <v>COVAC - Allergic reaction after first dose</v>
       </c>
     </row>
     <row r="16">
@@ -4610,7 +4861,29 @@
         <v>Vaccination information</v>
       </c>
       <c r="C24" s="4" t="str">
+        <v>COVAC - Vaccine Brand</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="str">
+        <v>Vaccination</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <v>Vaccination information</v>
+      </c>
+      <c r="C25" s="5" t="str">
         <v>COVAC - AEFIs present</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="str">
+        <v>Vaccination</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <v>Vaccination information</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <v>COVAC - Health worker identification</v>
       </c>
     </row>
   </sheetData>
@@ -4619,15 +4892,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="106.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="85.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
@@ -4980,7 +5253,7 @@
         <v>Doses given</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v xml:space="preserve">1st, 2nd, 3rd, booster dose - Number of doses - </v>
+        <v>1st, 2nd, 3rd, booster dose - Number of doses -</v>
       </c>
       <c r="D14" s="4" t="str">
         <v>COV-n</v>
@@ -5026,16 +5299,16 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>hqm8znlAzkT</v>
+        <v>SqD0kovH0CS</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>Number of people receiving a first dose  (Male 0-59)</v>
+        <v>Number of people receiving a first dose (0-59)</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>First dose - Number of people (Male 0-59)</v>
+        <v>First dose - Number of people (0-59)</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>COV-1 (Male 0-59)</v>
+        <v>COV-1 (0-59)</v>
       </c>
       <c r="E16" s="4" t="str">
         <v>Number of people who have had a first dose of a vaccine product</v>
@@ -5052,16 +5325,16 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>SqD0kovH0CS</v>
+        <v>MUXThnNRCk6</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>Number of people receiving a first dose (0-59)</v>
+        <v>Number of people receiving a first dose (60+)</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>First dose - Number of people (0-59)</v>
+        <v>First dose - Number of people (60+)</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>COV-1 (0-59)</v>
+        <v>COV-1 (60+)</v>
       </c>
       <c r="E17" s="5" t="str">
         <v>Number of people who have had a first dose of a vaccine product</v>
@@ -5078,16 +5351,16 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>MUXThnNRCk6</v>
+        <v>RJ6pdxga9Od</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Number of people receiving a first dose (60+)</v>
+        <v>Number of people receiving a first dose (Female 0-59)</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>First dose - Number of people (60+)</v>
+        <v>First dose - Number of people (Female 0-59)</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>COV-1 (60+)</v>
+        <v>COV-1 (Female 0-59)</v>
       </c>
       <c r="E18" s="4" t="str">
         <v>Number of people who have had a first dose of a vaccine product</v>
@@ -5104,16 +5377,16 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>RJ6pdxga9Od</v>
+        <v>x4L0LuEBHhW</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>Number of people receiving a first dose (Female 0-59)</v>
+        <v>Number of people receiving a first dose (Female 60+)</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>First dose - Number of people (Female 0-59)</v>
+        <v>First dose - Number of people (Female 60+)</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>COV-1 (Female 0-59)</v>
+        <v>COV-1 (Female 60+)</v>
       </c>
       <c r="E19" s="5" t="str">
         <v>Number of people who have had a first dose of a vaccine product</v>
@@ -5130,16 +5403,16 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>x4L0LuEBHhW</v>
+        <v>kKr4FSA1O0Z</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>Number of people receiving a first dose (Female 60+)</v>
+        <v>Number of people receiving a first dose (Female)</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>First dose - Number of people (Female 60+)</v>
+        <v>First dose - Number of people (Female)</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>COV-1 (Female 60+)</v>
+        <v>COV-1 Female</v>
       </c>
       <c r="E20" s="4" t="str">
         <v>Number of people who have had a first dose of a vaccine product</v>
@@ -5156,16 +5429,16 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>kKr4FSA1O0Z</v>
+        <v>hqm8znlAzkT</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Number of people receiving a first dose (Female)</v>
+        <v>Number of people receiving a first dose (Male 0-59)</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>First dose - Number of people (Female)</v>
+        <v>First dose - Number of people (Male 0-59)</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v>COV-1 Female</v>
+        <v>COV-1 (Male 0-59)</v>
       </c>
       <c r="E21" s="5" t="str">
         <v>Number of people who have had a first dose of a vaccine product</v>
@@ -5260,16 +5533,16 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>UzPqw49tyym</v>
+        <v>zgt8n5PIAAf</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v xml:space="preserve">Number of people receiving a second, third or booster dose  (Male) </v>
+        <v>Number of people receiving a second, third or booster dose (0-59)</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>2nd, 3rd, booster dose - Number of males</v>
+        <v>2nd, 3rd or booster dose - Number of people (0-59)</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>COV-2 (Male)</v>
+        <v>COV-2 (0-59)</v>
       </c>
       <c r="E25" s="5" t="str">
         <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
@@ -5286,16 +5559,16 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>zgt8n5PIAAf</v>
+        <v>CI0pKfEiWom</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Number of people receiving a second, third or booster dose (0-59)</v>
+        <v>Number of people receiving a second, third or booster dose (60+)</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>2nd, 3rd or booster dose - Number of people (0-59)</v>
+        <v>2nd, 3rd, booster dose - Number of people (60+)</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>COV-2 (0-59)</v>
+        <v>COV-2 (60+)</v>
       </c>
       <c r="E26" s="4" t="str">
         <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
@@ -5312,19 +5585,19 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>CI0pKfEiWom</v>
+        <v>xY4T9hHXNji</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>Number of people receiving a second, third or booster dose (60+)</v>
+        <v>Number of people receiving a second, third or booster dose (Female 0-59)</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>2nd, 3rd, booster dose - Number of people (60+)</v>
+        <v>2nd, 3rd or booster dose - (Female 0-59)</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>COV-2 (60+)</v>
+        <v>COV-2 (Female 0-59)</v>
       </c>
       <c r="E27" s="5" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of females who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F27" s="5" t="str">
         <v>EVENT</v>
@@ -5338,16 +5611,16 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>xY4T9hHXNji</v>
+        <v>h9G7i6mQKef</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>Number of people receiving a second, third or booster dose (Female 0-59)</v>
+        <v>Number of people receiving a second, third or booster dose (Female 60+)</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>2nd, 3rd or booster dose -  (Female 0-59)</v>
+        <v>2nd, 3rd, booster dose - (Female 60+)</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>COV-2 (Female 0-59)</v>
+        <v>COV-2 (Female 60+)</v>
       </c>
       <c r="E28" s="4" t="str">
         <v>Number of females who have had a second, third, or booster dose of a vaccine product</v>
@@ -5364,19 +5637,19 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>h9G7i6mQKef</v>
+        <v>wkaRLVNi6Fm</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>Number of people receiving a second, third or booster dose (Female 60+)</v>
+        <v>Number of people receiving a second, third or booster dose (Female)</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>2nd, 3rd, booster dose - (Female 60+)</v>
+        <v>2nd, 3rd, booster dose - Number of females</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>COV-2 (Female 60+)</v>
+        <v>COV-2 (Female)</v>
       </c>
       <c r="E29" s="5" t="str">
-        <v>Number of females who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F29" s="5" t="str">
         <v>EVENT</v>
@@ -5390,19 +5663,19 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>wkaRLVNi6Fm</v>
+        <v>MGjwUUNsE60</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v xml:space="preserve">Number of people receiving a second, third or booster dose (Female) </v>
+        <v>Number of people receiving a second, third or booster dose (Male 0-59)</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>2nd, 3rd, booster dose - Number of females</v>
+        <v>2nd, 3rd or booster dose - (Male 0-59)</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>COV-2 (Female)</v>
+        <v>COV-2 (Male 0-59)</v>
       </c>
       <c r="E30" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of males who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F30" s="4" t="str">
         <v>EVENT</v>
@@ -5416,19 +5689,19 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>MGjwUUNsE60</v>
+        <v>qh0kIjHZbP8</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>Number of people receiving a second, third or booster dose (Male 0-59)</v>
+        <v>Number of people receiving a second, third or booster dose (Male 60+)</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>2nd, 3rd or booster dose -  (Male 0-59)</v>
+        <v>2nd, 3rd, booster dose - (Male 60+)</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>COV-2 (Male 0-59)</v>
+        <v>COV-2 (Male 60+)</v>
       </c>
       <c r="E31" s="5" t="str">
-        <v>Number of males who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F31" s="5" t="str">
         <v>EVENT</v>
@@ -5442,16 +5715,16 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>qh0kIjHZbP8</v>
+        <v>UzPqw49tyym</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>Number of people receiving a second, third or booster dose (Male 60+)</v>
+        <v>Number of people receiving a second, third or booster dose (Male)</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>2nd, 3rd, booster dose - (Male 60+)</v>
+        <v>2nd, 3rd, booster dose - Number of males</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>COV-2 (Male 60+)</v>
+        <v>COV-2 (Male)</v>
       </c>
       <c r="E32" s="4" t="str">
         <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
@@ -5734,7 +6007,7 @@
         <v>Vaccine Uptake AstraZeneca</v>
       </c>
       <c r="C43" s="5" t="str">
-        <v xml:space="preserve">Vaccine Uptake (AstraZeneca) </v>
+        <v>Vaccine Uptake (AstraZeneca)</v>
       </c>
       <c r="D43" s="5" t="str">
         <v/>
@@ -5760,7 +6033,7 @@
         <v>Vaccine Uptake BioNtech</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v xml:space="preserve">Vaccine Uptake (BioNTech/Pfizer) </v>
+        <v>Vaccine Uptake (BioNTech/Pfizer)</v>
       </c>
       <c r="D44" s="4" t="str">
         <v/>
@@ -5786,7 +6059,7 @@
         <v>Vaccine Uptake Gamaleya</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v xml:space="preserve">Vaccine Uptake (Gamaleya) </v>
+        <v>Vaccine Uptake (Gamaleya)</v>
       </c>
       <c r="D45" s="5" t="str">
         <v/>
@@ -5812,7 +6085,7 @@
         <v>Vaccine Uptake Moderna</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v xml:space="preserve">Vaccine Uptake (Moderna) </v>
+        <v>Vaccine Uptake (Moderna)</v>
       </c>
       <c r="D46" s="4" t="str">
         <v/>
@@ -5838,7 +6111,7 @@
         <v>Vaccine Uptake Sinopharm</v>
       </c>
       <c r="C47" s="5" t="str">
-        <v xml:space="preserve">Vaccine Uptake (Sinopharm ) </v>
+        <v>Vaccine Uptake (Sinopharm )</v>
       </c>
       <c r="D47" s="5" t="str">
         <v/>
@@ -5853,214 +6126,6 @@
         <v/>
       </c>
       <c r="H47" s="5" t="str">
-        <v>yDuAzyqYABS</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="4" t="str">
-        <v>UzbfnPqo0LV</v>
-      </c>
-      <c r="B48" s="4" t="str">
-        <v>ZZZNumber of doses given</v>
-      </c>
-      <c r="C48" s="4" t="str">
-        <v>ZZZ1st, 2nd, 3rd, booster dose - Number of people</v>
-      </c>
-      <c r="D48" s="4" t="str">
-        <v>ZZZCOV-n</v>
-      </c>
-      <c r="E48" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
-      </c>
-      <c r="F48" s="4" t="str">
-        <v>EVENT</v>
-      </c>
-      <c r="G48" s="4" t="str">
-        <v/>
-      </c>
-      <c r="H48" s="4" t="str">
-        <v>yDuAzyqYABS</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="5" t="str">
-        <v>BEw3zmRnGo4</v>
-      </c>
-      <c r="B49" s="5" t="str">
-        <v>ZZZNumber of people (Female) receiving a second, third or booster dose</v>
-      </c>
-      <c r="C49" s="5" t="str">
-        <v>ZZZ2nd, 3rd, booster dose - Number of females</v>
-      </c>
-      <c r="D49" s="5" t="str">
-        <v>ZZCOV-2 (Female)</v>
-      </c>
-      <c r="E49" s="5" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
-      </c>
-      <c r="F49" s="5" t="str">
-        <v>ENROLLMENT</v>
-      </c>
-      <c r="G49" s="5" t="str">
-        <v/>
-      </c>
-      <c r="H49" s="5" t="str">
-        <v>yDuAzyqYABS</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="4" t="str">
-        <v>IXW8ahBF3Pl</v>
-      </c>
-      <c r="B50" s="4" t="str">
-        <v>ZZZNumber of people (Male) receiving a second, third or booster dose</v>
-      </c>
-      <c r="C50" s="4" t="str">
-        <v>ZZZ2nd, 3rd, booster dose - Number of males</v>
-      </c>
-      <c r="D50" s="4" t="str">
-        <v>ZZZCOV-2 (Male)</v>
-      </c>
-      <c r="E50" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
-      </c>
-      <c r="F50" s="4" t="str">
-        <v>ENROLLMENT</v>
-      </c>
-      <c r="G50" s="4" t="str">
-        <v/>
-      </c>
-      <c r="H50" s="4" t="str">
-        <v>yDuAzyqYABS</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="str">
-        <v>P2OSNv6tWuj</v>
-      </c>
-      <c r="B51" s="5" t="str">
-        <v>ZZZNumber of people receiving a first dose</v>
-      </c>
-      <c r="C51" s="5" t="str">
-        <v>ZZZFirst dose - Number of people</v>
-      </c>
-      <c r="D51" s="5" t="str">
-        <v>ZZZCOV-1</v>
-      </c>
-      <c r="E51" s="5" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
-      </c>
-      <c r="F51" s="5" t="str">
-        <v>ENROLLMENT</v>
-      </c>
-      <c r="G51" s="5" t="str">
-        <v/>
-      </c>
-      <c r="H51" s="5" t="str">
-        <v>yDuAzyqYABS</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="4" t="str">
-        <v>sYIBsws6qUG</v>
-      </c>
-      <c r="B52" s="4" t="str">
-        <v>zzzNumber of people receiving a second, third or booster dose</v>
-      </c>
-      <c r="C52" s="4" t="str">
-        <v>zzz2nd, 3rd, booster dose - Number of people</v>
-      </c>
-      <c r="D52" s="4" t="str">
-        <v xml:space="preserve">zzzCOV-2 </v>
-      </c>
-      <c r="E52" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
-      </c>
-      <c r="F52" s="4" t="str">
-        <v>ENROLLMENT</v>
-      </c>
-      <c r="G52" s="4" t="str">
-        <v/>
-      </c>
-      <c r="H52" s="4" t="str">
-        <v>yDuAzyqYABS</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="5" t="str">
-        <v>ApGCVA6qhKT</v>
-      </c>
-      <c r="B53" s="5" t="str">
-        <v>ZZZVaccine Uptake (AstraZeneca)</v>
-      </c>
-      <c r="C53" s="5" t="str">
-        <v>ZZZVaccine Uptake (AstraZeneca)</v>
-      </c>
-      <c r="D53" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E53" s="5" t="str">
-        <v>Number of doses given of AstraZeneca</v>
-      </c>
-      <c r="F53" s="5" t="str">
-        <v>EVENT</v>
-      </c>
-      <c r="G53" s="5" t="str">
-        <v/>
-      </c>
-      <c r="H53" s="5" t="str">
-        <v>yDuAzyqYABS</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="4" t="str">
-        <v>rtoIINJSfAf</v>
-      </c>
-      <c r="B54" s="4" t="str">
-        <v>ZZZVaccine Uptake (BioNTech/Pfizer)</v>
-      </c>
-      <c r="C54" s="4" t="str">
-        <v>ZZZVaccine Uptake (BioNTech/Pfizer)</v>
-      </c>
-      <c r="D54" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E54" s="4" t="str">
-        <v>Number of people who have had any dose of a vaccine product</v>
-      </c>
-      <c r="F54" s="4" t="str">
-        <v>EVENT</v>
-      </c>
-      <c r="G54" s="4" t="str">
-        <v/>
-      </c>
-      <c r="H54" s="4" t="str">
-        <v>yDuAzyqYABS</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="5" t="str">
-        <v>T4Fcv5Khfe8</v>
-      </c>
-      <c r="B55" s="5" t="str">
-        <v>ZZZVaccine Uptake (Moderna)</v>
-      </c>
-      <c r="C55" s="5" t="str">
-        <v>ZZZVaccine Uptake (Moderna)</v>
-      </c>
-      <c r="D55" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E55" s="5" t="str">
-        <v>Number of people who have had any dose of a vaccine product</v>
-      </c>
-      <c r="F55" s="5" t="str">
-        <v>EVENT</v>
-      </c>
-      <c r="G55" s="5" t="str">
-        <v/>
-      </c>
-      <c r="H55" s="5" t="str">
         <v>yDuAzyqYABS</v>
       </c>
     </row>
@@ -6070,7 +6135,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -6475,10 +6540,10 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>TRR2ODBsnkN</v>
+        <v>VwsUJGrwrNM</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>If Age is under 16, then warn that BioNTech/Pfizer is recommended for ages 16 and up</v>
+        <v>If AEFI immediately after dose, show warning</v>
       </c>
       <c r="C24" s="4" t="str">
         <v/>
@@ -6492,10 +6557,10 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>e0WJRMhSrZy</v>
+        <v>lUluWImceqx</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>If Age is under 18, then warn that AstraZeneca is recommended for ages 18 and up</v>
+        <v>If AEFI immediately after dose, show warning</v>
       </c>
       <c r="C25" s="5" t="str">
         <v/>
@@ -6509,10 +6574,10 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>xydE4Vcj6xU</v>
+        <v>TRR2ODBsnkN</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>If Age is under 18, then warn that Gamaleya is recommended for ages 18 and up</v>
+        <v>If Age is under 16, then warn that BioNTech/Pfizer is recommended for ages 16 and up</v>
       </c>
       <c r="C26" s="4" t="str">
         <v/>
@@ -6526,10 +6591,10 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>ppbeGorruVj</v>
+        <v>e0WJRMhSrZy</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>If Age is under 18, then warn that Moderna is recommended for ages 18 and up</v>
+        <v>If Age is under 18, then warn that AstraZeneca is recommended for ages 18 and up</v>
       </c>
       <c r="C27" s="5" t="str">
         <v/>
@@ -6543,10 +6608,10 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>xeInMQrA5Mo</v>
+        <v>xydE4Vcj6xU</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>If Age is under 18, then warn that Sinopharm is recommended for ages 18 and up</v>
+        <v>If Age is under 18, then warn that Gamaleya is recommended for ages 18 and up</v>
       </c>
       <c r="C28" s="4" t="str">
         <v/>
@@ -6560,10 +6625,10 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>jNtY9t6b120</v>
+        <v>ppbeGorruVj</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>if client has a history of cardiovascular disease assign value to current event</v>
+        <v>If Age is under 18, then warn that Moderna is recommended for ages 18 and up</v>
       </c>
       <c r="C29" s="5" t="str">
         <v/>
@@ -6577,10 +6642,10 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>j16AULHWXur</v>
+        <v>xeInMQrA5Mo</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>If client has a history of Cardiovascular disease show it on indicator panel</v>
+        <v>If Age is under 18, then warn that Sinopharm is recommended for ages 18 and up</v>
       </c>
       <c r="C30" s="4" t="str">
         <v/>
@@ -6594,10 +6659,10 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>gmBh14b7tYb</v>
+        <v>jNtY9t6b120</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>If client has a history of Chronic lung disease show it on indicator panel</v>
+        <v>if client has a history of cardiovascular disease assign value to current event</v>
       </c>
       <c r="C31" s="5" t="str">
         <v/>
@@ -6611,10 +6676,10 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>i0YmXeSnrqn</v>
+        <v>j16AULHWXur</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>if client has a history of Chronic lung disease, add value to current event</v>
+        <v>If client has a history of Cardiovascular disease show it on indicator panel</v>
       </c>
       <c r="C32" s="4" t="str">
         <v/>
@@ -6628,10 +6693,10 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>KGBdMuY2ASs</v>
+        <v>gmBh14b7tYb</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>if client has a history of Diabetes assign value to current event</v>
+        <v>If client has a history of Chronic lung disease show it on indicator panel</v>
       </c>
       <c r="C33" s="5" t="str">
         <v/>
@@ -6645,10 +6710,10 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>r9NQ2R4eFIO</v>
+        <v>i0YmXeSnrqn</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>If client has a history of Diabetes show it on indicator panel</v>
+        <v>if client has a history of Chronic lung disease, add value to current event</v>
       </c>
       <c r="C34" s="4" t="str">
         <v/>
@@ -6662,10 +6727,10 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>i5tOyWRc3S1</v>
+        <v>KGBdMuY2ASs</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>if client has a history of immunodeficiency assign value to current event</v>
+        <v>if client has a history of Diabetes assign value to current event</v>
       </c>
       <c r="C35" s="5" t="str">
         <v/>
@@ -6679,10 +6744,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>ucrvgwsRCim</v>
+        <v>r9NQ2R4eFIO</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>If client has a history of immunodeficiency show it on indicator panel</v>
+        <v>If client has a history of Diabetes show it on indicator panel</v>
       </c>
       <c r="C36" s="4" t="str">
         <v/>
@@ -6696,10 +6761,10 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>K9Vjkz1xOw1</v>
+        <v>i5tOyWRc3S1</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>if client has a history of malignancy assign value to current event</v>
+        <v>if client has a history of immunodeficiency assign value to current event</v>
       </c>
       <c r="C37" s="5" t="str">
         <v/>
@@ -6713,10 +6778,10 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>SDfSLD0WFOL</v>
+        <v>ucrvgwsRCim</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>if client has a history of malignancy show it on indicator panel</v>
+        <v>If client has a history of immunodeficiency show it on indicator panel</v>
       </c>
       <c r="C38" s="4" t="str">
         <v/>
@@ -6730,10 +6795,10 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>OdSVYvgu6G2</v>
+        <v>K9Vjkz1xOw1</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>if client has a history of neurological deficiency assign value to current event</v>
+        <v>if client has a history of malignancy assign value to current event</v>
       </c>
       <c r="C39" s="5" t="str">
         <v/>
@@ -6747,10 +6812,10 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>vqQMyfw3i3u</v>
+        <v>SDfSLD0WFOL</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>If client has a history of Neurological disease show it on indicator panel</v>
+        <v>If client has a history of malignancy show it on indicator panel</v>
       </c>
       <c r="C40" s="4" t="str">
         <v/>
@@ -6764,10 +6829,10 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>QEq5oRr4UEw</v>
+        <v>OdSVYvgu6G2</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>if client has a history of Other assign value to current event</v>
+        <v>if client has a history of neurological deficiency assign value to current event</v>
       </c>
       <c r="C41" s="5" t="str">
         <v/>
@@ -6781,10 +6846,10 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>ParDbFN1amU</v>
+        <v>vqQMyfw3i3u</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>If client has a history of OTHER disease show it on indicator panel</v>
+        <v>If client has a history of Neurological disease show it on indicator panel</v>
       </c>
       <c r="C42" s="4" t="str">
         <v/>
@@ -6798,10 +6863,10 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>l8opvp32VAd</v>
+        <v>QEq5oRr4UEw</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>if client has a history of Renal disease assign value to current event</v>
+        <v>if client has a history of Other assign value to current event</v>
       </c>
       <c r="C43" s="5" t="str">
         <v/>
@@ -6815,10 +6880,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>qrIXRSq77JN</v>
+        <v>ParDbFN1amU</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>If client has a history of Renal Disease show it on indicator panel</v>
+        <v>If client has a history of OTHER disease show it on indicator panel</v>
       </c>
       <c r="C44" s="4" t="str">
         <v/>
@@ -6832,13 +6897,13 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>GtxjhHBQdLQ</v>
+        <v>l8opvp32VAd</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>If patient has had covid, assign value to data element of current event</v>
+        <v>if client has a history of Renal disease assign value to current event</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v>Rule transfers date of remission and if person has previously had covid</v>
+        <v/>
       </c>
       <c r="D45" s="5" t="str">
         <v/>
@@ -6849,10 +6914,10 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>AmgPexdbztQ</v>
+        <v>qrIXRSq77JN</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>If patient has had underlying diseases, transfer that value to following stage</v>
+        <v>If client has a history of Renal Disease show it on indicator panel</v>
       </c>
       <c r="C46" s="4" t="str">
         <v/>
@@ -6866,13 +6931,13 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>XTLv9YqOtNX</v>
+        <v>GtxjhHBQdLQ</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>If previous vaccine is differente than current vaccine, show warning.</v>
+        <v>If patient has had covid, assign value to data element of current event</v>
       </c>
       <c r="C47" s="5" t="str">
-        <v/>
+        <v>Rule transfers date of remission and if person has previously had covid</v>
       </c>
       <c r="D47" s="5" t="str">
         <v/>
@@ -6883,10 +6948,10 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>vd1vZsjDft4</v>
+        <v>AmgPexdbztQ</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>If previous vaccine is same as current vaccine, hide explanation field</v>
+        <v>If patient has had underlying diseases, transfer that value to following stage</v>
       </c>
       <c r="C48" s="4" t="str">
         <v/>
@@ -6900,10 +6965,10 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>A6Oy09dbQwn</v>
+        <v>XTLv9YqOtNX</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>if there was an allergic reaction after the first dose, show warning "conduct AEFI Investigation"</v>
+        <v>If previous vaccine is differente than current vaccine, show warning.</v>
       </c>
       <c r="C49" s="5" t="str">
         <v/>
@@ -6917,13 +6982,13 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>PJjKiFrvfuN</v>
+        <v>vd1vZsjDft4</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>If this is the second dose, mark it as "last dose" for all vaccine products</v>
+        <v>If previous vaccine is same as current vaccine, hide explanation field</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v>It selects the "last dose" option, it assumes that all products have two doses as the complete schedule.</v>
+        <v/>
       </c>
       <c r="D50" s="4" t="str">
         <v/>
@@ -6934,10 +6999,10 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>SkBUqyO9zG0</v>
+        <v>A6Oy09dbQwn</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>Last dose - complete programme</v>
+        <v>if there was an allergic reaction after the first dose, show warning "conduct AEFI Investigation"</v>
       </c>
       <c r="C51" s="5" t="str">
         <v/>
@@ -6951,13 +7016,13 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>W0YQaz1qRJb</v>
+        <v>PJjKiFrvfuN</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>Send notification if overdue</v>
+        <v>If this is the second dose, mark it as "last dose" for all vaccine products</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v/>
+        <v>It selects the "last dose" option, it assumes that all products have two doses as the complete schedule.</v>
       </c>
       <c r="D52" s="4" t="str">
         <v/>
@@ -6968,10 +7033,10 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>nU9WWRKt7PL</v>
+        <v>SkBUqyO9zG0</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>Show vaccine type from previous vaccination event</v>
+        <v>Last dose - complete programme</v>
       </c>
       <c r="C53" s="5" t="str">
         <v/>
@@ -6985,10 +7050,10 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>LO6XtDyCbya</v>
+        <v>W0YQaz1qRJb</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>Show warning if person has had covid within 90 days of vaccination date</v>
+        <v>Send notification if overdue</v>
       </c>
       <c r="C54" s="4" t="str">
         <v/>
@@ -7002,13 +7067,13 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>biYqhZM5HXe</v>
+        <v>nU9WWRKt7PL</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>Show warning if the client is a health worker</v>
+        <v>Show vaccine type from previous vaccination event</v>
       </c>
       <c r="C55" s="5" t="str">
-        <v>If the client is a health worker, show a warning in the top bar</v>
+        <v/>
       </c>
       <c r="D55" s="5" t="str">
         <v/>
@@ -7019,18 +7084,52 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
+        <v>LO6XtDyCbya</v>
+      </c>
+      <c r="B56" s="4" t="str">
+        <v>Show warning if person has had covid within 90 days of vaccination date</v>
+      </c>
+      <c r="C56" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D56" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="str">
+        <v>biYqhZM5HXe</v>
+      </c>
+      <c r="B57" s="5" t="str">
+        <v>Show warning if the client is a health worker</v>
+      </c>
+      <c r="C57" s="5" t="str">
+        <v>If the client is a health worker, show a warning in the top bar</v>
+      </c>
+      <c r="D57" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E57" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="str">
         <v>hdPflHqZKO3</v>
       </c>
-      <c r="B56" s="4" t="str">
+      <c r="B58" s="4" t="str">
         <v>Show warning: If first dose, then hide "last dose" DE</v>
       </c>
-      <c r="C56" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D56" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E56" s="4" t="str">
+      <c r="C58" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D58" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E58" s="4" t="str">
         <v>yDuAzyqYABS</v>
       </c>
     </row>
